--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\MumbaiExtraction\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\2nd tasks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F0FE87-9291-4365-A8B9-EA3AE3C42D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>PageNo</x:t>
   </x:si>
@@ -45,12 +44,48 @@
   </x:si>
   <x:si>
     <x:t>111123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>115623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113703</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -399,14 +434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:B1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:A2"/>
+      <x:selection activeCell="A2" sqref="A2 A2:B51"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,6 +537,326 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="3" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="3" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="3" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="3" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="3" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="3" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="3" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="3" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="3" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="3" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="3" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="3" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="3" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="3" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2">
+      <x:c r="A30" s="3" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B30" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:2">
+      <x:c r="A31" s="3" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B31" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:2">
+      <x:c r="A32" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B32" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:2">
+      <x:c r="A33" s="3" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B33" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:2">
+      <x:c r="A34" s="3" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B34" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35" s="3" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B35" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:2">
+      <x:c r="A36" s="3" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B36" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B37" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:2">
+      <x:c r="A38" s="3" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B38" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39" s="3" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B39" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="3" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B40" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="3" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B41" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:2">
+      <x:c r="A42" s="3" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B42" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2">
+      <x:c r="A43" s="3" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B43" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="3" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B44" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:2">
+      <x:c r="A45" s="3" t="n">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B45" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:2">
+      <x:c r="A46" s="3" t="n">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B46" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:2">
+      <x:c r="A47" s="3" t="n">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B47" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:2">
+      <x:c r="A48" s="3" t="n">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B48" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2">
+      <x:c r="A49" s="3" t="n">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B49" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:2">
+      <x:c r="A50" s="3" t="n">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B50" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:2">
+      <x:c r="A51" s="3" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B51" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>PageNo</x:t>
   </x:si>
@@ -28,9 +28,15 @@
     <x:t>ExtractedValue</x:t>
   </x:si>
   <x:si>
+    <x:t>Data Extracted From</x:t>
+  </x:si>
+  <x:si>
     <x:t>119123</x:t>
   </x:si>
   <x:si>
+    <x:t>w.e.f. 01-05-2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>120203</x:t>
   </x:si>
   <x:si>
@@ -49,9 +55,15 @@
     <x:t>115623</x:t>
   </x:si>
   <x:si>
+    <x:t>w.e.f. 06-05-2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>116703</x:t>
   </x:si>
   <x:si>
+    <x:t>w.e.f. 07-05-2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>106223</x:t>
   </x:si>
   <x:si>
@@ -64,6 +76,9 @@
     <x:t>106623</x:t>
   </x:si>
   <x:si>
+    <x:t>w.e.f. 13-05-2021</x:t>
+  </x:si>
+  <x:si>
     <x:t>100223</x:t>
   </x:si>
   <x:si>
@@ -77,6 +92,9 @@
   </x:si>
   <x:si>
     <x:t>112623</x:t>
+  </x:si>
+  <x:si>
+    <x:t>w.e.f. 20-05-2021</x:t>
   </x:si>
   <x:si>
     <x:t>113703</x:t>
@@ -438,423 +456,628 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B1"/>
+  <x:dimension ref="A1:D50"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="A2" sqref="A2 A2:B51"/>
+      <x:selection activeCell="B3" sqref="B3 B3:B3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="2" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="14.570312" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A3" s="3" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A4" s="3" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
+      <x:c r="D4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A5" s="3" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
+      <x:c r="D5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="3" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A7" s="3" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A8" s="3" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A9" s="3" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A10" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A11" s="3" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A12" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A13" s="3" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A14" s="3" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A15" s="3" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A16" s="3" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D16" s="3" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A17" s="3" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B17" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D17" s="3" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A18" s="3" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A19" s="3" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A20" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D20" s="3" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A21" s="3" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A22" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C22" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D22" s="3" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A23" s="3" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D23" s="3" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A24" s="3" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D24" s="3" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A25" s="3" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D25" s="3" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A26" s="3" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D26" s="3" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A27" s="3" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D27" s="3" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A28" s="3" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D28" s="3" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A29" s="3" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C29" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D29" s="3" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A30" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B30" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C30" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
+      <x:c r="D30" s="3" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A31" s="3" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B31" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C31" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
+      <x:c r="D31" s="3" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A32" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B32" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D32" s="3" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A33" s="3" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B33" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C33" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D33" s="3" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A34" s="3" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B34" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C34" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D34" s="3" t="s"/>
+    </x:row>
+    <x:row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A35" s="3" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B35" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C35" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D35" s="3" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A36" s="3" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B36" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C36" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D36" s="3" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A37" s="3" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B37" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C37" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D37" s="3" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A38" s="3" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B38" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C38" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D38" s="3" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A39" s="3" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B39" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C39" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D39" s="3" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A40" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B40" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C40" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D40" s="3" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A41" s="3" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B41" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:2">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C41" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D41" s="3" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A42" s="3" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B42" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C42" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D42" s="3" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A43" s="3" t="n">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B43" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:2">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C43" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D43" s="3" t="s"/>
+    </x:row>
+    <x:row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A44" s="3" t="n">
         <x:v>56</x:v>
       </x:c>
       <x:c r="B44" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C44" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D44" s="3" t="s"/>
+    </x:row>
+    <x:row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A45" s="3" t="n">
         <x:v>59</x:v>
       </x:c>
       <x:c r="B45" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C45" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D45" s="3" t="s"/>
+    </x:row>
+    <x:row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A46" s="3" t="n">
         <x:v>62</x:v>
       </x:c>
       <x:c r="B46" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C46" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D46" s="3" t="s"/>
+    </x:row>
+    <x:row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A47" s="3" t="n">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B47" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C47" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D47" s="3" t="s"/>
+    </x:row>
+    <x:row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A48" s="3" t="n">
         <x:v>78</x:v>
       </x:c>
       <x:c r="B48" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C48" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D48" s="3" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A49" s="3" t="n">
         <x:v>81</x:v>
       </x:c>
       <x:c r="B49" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C49" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D49" s="3" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A50" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="B50" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:2">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C50" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D50" s="3" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:4">
       <x:c r="A51" s="3" t="n">
         <x:v>89</x:v>
       </x:c>
       <x:c r="B51" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\Documents\UiPath\2nd tasks\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\MumbaiExtraction\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2450738-8D55-4A0A-B163-14843A141372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,7 +392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
